--- a/db/db-challenge2/DB課題データベース定義書.xlsx
+++ b/db/db-challenge2/DB課題データベース定義書.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23525"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4F2DC44-912A-45A1-9856-7C123E0330E4}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03258532-FF35-44D0-AB2B-461242252041}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
+    <sheet name="users" sheetId="2" r:id="rId3"/>
+    <sheet name="participants" sheetId="4" r:id="rId4"/>
+    <sheet name="chatrooms" sheetId="5" r:id="rId5"/>
+    <sheet name="posts" sheetId="6" r:id="rId6"/>
+    <sheet name="tasks" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>改定履歴</t>
   </si>
@@ -321,6 +325,9 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>〇</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -383,18 +390,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>inyint</t>
-    </r>
-    <phoneticPr fontId="6"/>
+    <t>tinyint</t>
   </si>
   <si>
     <r>
@@ -603,6 +599,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>PK</t>
   </si>
   <si>
@@ -610,6 +609,9 @@
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
   <si>
     <t>パスワード</t>
@@ -648,6 +650,9 @@
     <t>is_deleated</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -659,12 +664,180 @@
   <si>
     <t>updated_at</t>
   </si>
+  <si>
+    <t>participants</t>
+  </si>
+  <si>
+    <t>チャット参加者を記録するテーブル。利用者テーブルとチャットルームテーブルの中間テーブル。</t>
+  </si>
+  <si>
+    <t>論理テーブル名:チャット参加者集計</t>
+  </si>
+  <si>
+    <t>参加者ID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>PK,FK</t>
+  </si>
+  <si>
+    <t>チャットルームID</t>
+  </si>
+  <si>
+    <t>chatroom_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>joined_at</t>
+  </si>
+  <si>
+    <t>chatrooms</t>
+  </si>
+  <si>
+    <t>チャットルーム関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>論理テーブル名:チャットルーム</t>
+  </si>
+  <si>
+    <t>チャット名</t>
+  </si>
+  <si>
+    <t>chat_name</t>
+  </si>
+  <si>
+    <t>チャット概要</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>ファイル送信可否フラグ</t>
+  </si>
+  <si>
+    <t>file_send_flg</t>
+  </si>
+  <si>
+    <t>1:送信許可</t>
+  </si>
+  <si>
+    <t>ダイレクトチャット判定フラグ</t>
+  </si>
+  <si>
+    <t>direct_chat_flg</t>
+  </si>
+  <si>
+    <t>1:ダイレクトチャット</t>
+  </si>
+  <si>
+    <t>作成者ID</t>
+  </si>
+  <si>
+    <t>created_user_id</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>更新者ID</t>
+  </si>
+  <si>
+    <t>updated_user_id</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>チャット機能の投稿内容に関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>論理テーブル名:チャット内容</t>
+  </si>
+  <si>
+    <t>投稿ID</t>
+  </si>
+  <si>
+    <t>投稿内容</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>添付ファイル名</t>
+  </si>
+  <si>
+    <t>attachment_file_name</t>
+  </si>
+  <si>
+    <t>投稿日時</t>
+  </si>
+  <si>
+    <t>posted_at</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>投稿者ID</t>
+  </si>
+  <si>
+    <t>posted_user_id</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>タスク機能に関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>論理テーブル名:タスク</t>
+  </si>
+  <si>
+    <t>タスクID</t>
+  </si>
+  <si>
+    <t>タスク内容</t>
+  </si>
+  <si>
+    <t>タスク担当者ID(FK)</t>
+  </si>
+  <si>
+    <t>person_user_id</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>タスク完了フラグ</t>
+  </si>
+  <si>
+    <t>done_flg</t>
+  </si>
+  <si>
+    <t>1:タスク完了</t>
+  </si>
+  <si>
+    <t>作成者ID(FK)</t>
+  </si>
+  <si>
+    <t>更新者ID(FK)</t>
+  </si>
+  <si>
+    <t>チャットルームID(FK)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -737,6 +910,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Meiryo UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -764,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -796,11 +975,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -824,9 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -861,6 +1089,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1093,9 +1335,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1160,7 +1402,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -29961,7 +30203,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -29977,61 +30219,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30062,11 +30304,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30080,11 +30322,11 @@
       <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -30093,12 +30335,12 @@
       <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30112,184 +30354,184 @@
       <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="16">
+        <v>33</v>
+      </c>
+      <c r="F7" s="15">
         <v>1000</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="16">
+        <v>36</v>
+      </c>
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>11</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="16">
+        <v>48</v>
+      </c>
+      <c r="F12" s="15">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30310,9 +30552,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30328,55 +30570,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30395,7 +30637,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="36" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -30409,238 +30651,288 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="13" t="s">
+      <c r="D5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="26"/>
+      <c r="E5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+      <c r="C6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="15">
+        <v>100</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+      <c r="C7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="F8" s="15">
+        <v>100</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="C9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+      <c r="C10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="15">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="26"/>
+      <c r="C11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15">
+        <v>13</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="26"/>
+      <c r="C12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="26"/>
+      <c r="C13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="25"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="26"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30652,4 +30944,1268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA0C368-7372-4574-B344-48AA682A55AF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="25"/>
+    <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="15">
+        <v>11</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2362D447-974C-42A4-99A0-EE56FF0FB88C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="25"/>
+    <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="25"/>
+    <col min="11" max="11" width="20.42578125" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="15">
+        <v>100</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="15">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="15">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D2E47F-6ADD-45C1-83D7-384949DABF0C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="25"/>
+    <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="25"/>
+    <col min="10" max="10" width="16.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="15">
+        <v>11</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="15">
+        <v>11</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="15">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3F1930-3960-43AB-9E45-744EA11FCA2F}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="25"/>
+    <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="25"/>
+    <col min="10" max="10" width="14.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="15">
+        <v>11</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="15">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="15">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="15">
+        <v>11</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/db/db-challenge2/DB課題データベース定義書.xlsx
+++ b/db/db-challenge2/DB課題データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23525"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="240" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03258532-FF35-44D0-AB2B-461242252041}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F03D2A90-DE44-48AB-84A7-DC0646C75713}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="131">
   <si>
     <t>改定履歴</t>
   </si>
@@ -650,9 +650,6 @@
     <t>is_deleated</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -1031,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1082,13 +1079,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,6 +1095,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -30219,61 +30217,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30304,11 +30302,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30336,11 +30334,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30364,11 +30362,11 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30390,11 +30388,11 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30422,11 +30420,11 @@
       <c r="K8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30448,11 +30446,11 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30476,11 +30474,11 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30502,11 +30500,11 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30530,8 +30528,8 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30570,55 +30568,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30637,7 +30635,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -30651,7 +30649,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30665,14 +30663,12 @@
       <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -30681,7 +30677,7 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30698,16 +30694,16 @@
       <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30724,16 +30720,16 @@
       <c r="F7" s="15">
         <v>100</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30750,16 +30746,16 @@
       <c r="F8" s="15">
         <v>100</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30777,13 +30773,13 @@
         <v>1000</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30807,7 +30803,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30831,7 +30827,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30843,7 +30839,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -30851,7 +30847,7 @@
       <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="19"/>
@@ -30861,23 +30857,23 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="19"/>
@@ -30885,23 +30881,23 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="19"/>
@@ -30909,30 +30905,30 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30955,7 +30951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30975,40 +30971,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31027,7 +31038,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31041,76 +31052,75 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>81</v>
+      <c r="I5" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="15">
-        <v>11</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>81</v>
+      <c r="I6" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="19"/>
@@ -31138,7 +31148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31160,33 +31170,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31205,7 +31237,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31219,12 +31251,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>53</v>
@@ -31232,14 +31265,12 @@
       <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -31248,15 +31279,16 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>58</v>
@@ -31264,24 +31296,25 @@
       <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>58</v>
@@ -31289,25 +31322,26 @@
       <c r="F7" s="15">
         <v>1000</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="35"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -31315,28 +31349,29 @@
       <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>97</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -31344,16 +31379,17 @@
       <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31365,7 +31401,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -31373,7 +31409,7 @@
       <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
@@ -31383,22 +31419,23 @@
       </c>
     </row>
     <row r="11" spans="1:11">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="19"/>
@@ -31406,22 +31443,23 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="19"/>
@@ -31429,55 +31467,53 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="15">
-        <v>11</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>101</v>
+      <c r="I13" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="15">
-        <v>11</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>101</v>
+      <c r="I14" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
@@ -31503,7 +31539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31526,33 +31562,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31571,7 +31629,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31585,12 +31643,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>53</v>
@@ -31598,14 +31657,12 @@
       <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -31614,15 +31671,16 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>58</v>
@@ -31630,24 +31688,25 @@
       <c r="F6" s="15">
         <v>1000</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>58</v>
@@ -31655,13 +31714,14 @@
       <c r="F7" s="15">
         <v>100</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="35"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31673,7 +31733,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -31681,7 +31741,7 @@
       <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="19"/>
@@ -31691,22 +31751,23 @@
       </c>
     </row>
     <row r="9" spans="1:11">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="19"/>
@@ -31714,22 +31775,23 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
@@ -31737,82 +31799,79 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="15">
-        <v>11</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>101</v>
+      <c r="I11" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="15">
-        <v>11</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>101</v>
+      <c r="I12" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="15">
-        <v>11</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>101</v>
+      <c r="I13" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
@@ -31838,7 +31897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31861,33 +31920,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31906,7 +31987,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31920,12 +32001,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>53</v>
@@ -31933,14 +32015,12 @@
       <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -31949,15 +32029,16 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>58</v>
@@ -31965,73 +32046,74 @@
       <c r="F6" s="15">
         <v>1000</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="15">
-        <v>11</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>127</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -32039,16 +32121,17 @@
       <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32060,7 +32143,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -32068,7 +32151,7 @@
       <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
@@ -32078,22 +32161,23 @@
       </c>
     </row>
     <row r="11" spans="1:11">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="19"/>
@@ -32101,22 +32185,23 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="19"/>
@@ -32124,77 +32209,74 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="15">
-        <v>11</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="15">
-        <v>11</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="15">
-        <v>11</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="13"/>
       <c r="K15" s="19"/>
     </row>

--- a/db/db-challenge2/DB課題データベース定義書.xlsx
+++ b/db/db-challenge2/DB課題データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23525"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="255" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F03D2A90-DE44-48AB-84A7-DC0646C75713}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB433745-1D9F-464C-839F-6627A3882ED2}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="128">
   <si>
     <t>改定履歴</t>
   </si>
@@ -800,7 +800,7 @@
     <t>タスク内容</t>
   </si>
   <si>
-    <t>タスク担当者ID(FK)</t>
+    <t>タスク担当者ID</t>
   </si>
   <si>
     <t>person_user_id</t>
@@ -819,15 +819,6 @@
   </si>
   <si>
     <t>1:タスク完了</t>
-  </si>
-  <si>
-    <t>作成者ID(FK)</t>
-  </si>
-  <si>
-    <t>更新者ID(FK)</t>
-  </si>
-  <si>
-    <t>チャットルームID(FK)</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,6 +1084,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30222,15 +30213,15 @@
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30241,15 +30232,15 @@
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30260,18 +30251,18 @@
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30302,11 +30293,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30334,11 +30325,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30362,11 +30353,11 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30388,11 +30379,11 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30420,11 +30411,11 @@
       <c r="K8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30446,11 +30437,11 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30474,11 +30465,11 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30500,11 +30491,11 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30528,8 +30519,8 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30573,13 +30564,13 @@
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30590,13 +30581,13 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30607,16 +30598,16 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30635,7 +30626,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -30649,7 +30640,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30664,11 +30655,11 @@
         <v>54</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -30677,7 +30668,7 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30694,16 +30685,16 @@
       <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30720,16 +30711,16 @@
       <c r="F7" s="15">
         <v>100</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30746,16 +30737,16 @@
       <c r="F8" s="15">
         <v>100</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30773,13 +30764,13 @@
         <v>1000</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30803,7 +30794,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30827,7 +30818,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30847,7 +30838,7 @@
       <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="19"/>
@@ -30857,7 +30848,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30873,7 +30864,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="19"/>
@@ -30881,7 +30872,7 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30897,7 +30888,7 @@
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="19"/>
@@ -30905,30 +30896,30 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30976,13 +30967,13 @@
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31010,16 +31001,16 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31038,7 +31029,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31052,7 +31043,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
@@ -31067,18 +31058,18 @@
         <v>54</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>80</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31093,18 +31084,18 @@
         <v>54</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="30" t="s">
         <v>80</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31120,7 +31111,7 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="19"/>
@@ -31175,13 +31166,13 @@
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31192,13 +31183,13 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31209,16 +31200,16 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31237,7 +31228,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31251,7 +31242,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -31266,11 +31257,11 @@
         <v>54</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -31279,7 +31270,7 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31296,16 +31287,16 @@
       <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31322,14 +31313,14 @@
       <c r="F7" s="15">
         <v>1000</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="32"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31349,7 +31340,7 @@
       <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="19"/>
@@ -31359,7 +31350,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31379,7 +31370,7 @@
       <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="19"/>
@@ -31389,7 +31380,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31409,7 +31400,7 @@
       <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
@@ -31419,7 +31410,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31435,7 +31426,7 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="19"/>
@@ -31443,7 +31434,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31459,7 +31450,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="19"/>
@@ -31467,7 +31458,7 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31482,18 +31473,18 @@
         <v>54</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>100</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31508,11 +31499,11 @@
         <v>54</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="29" t="s">
         <v>100</v>
       </c>
       <c r="J14" s="13"/>
@@ -31567,13 +31558,13 @@
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31584,13 +31575,13 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31601,16 +31592,16 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31629,7 +31620,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -31643,7 +31634,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
@@ -31658,11 +31649,11 @@
         <v>54</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -31671,7 +31662,7 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31688,16 +31679,16 @@
       <c r="F6" s="15">
         <v>1000</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31714,14 +31705,14 @@
       <c r="F7" s="15">
         <v>100</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="32"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31741,7 +31732,7 @@
       <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="19"/>
@@ -31751,7 +31742,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31767,7 +31758,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="19"/>
@@ -31775,7 +31766,7 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31791,7 +31782,7 @@
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
@@ -31799,7 +31790,7 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31814,18 +31805,18 @@
         <v>54</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="29" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="29" t="s">
         <v>100</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31840,18 +31831,18 @@
         <v>54</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="29" t="s">
         <v>100</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31866,11 +31857,11 @@
         <v>54</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>100</v>
       </c>
       <c r="J13" s="13"/>
@@ -31897,7 +31888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31925,13 +31916,13 @@
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31942,13 +31933,13 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31959,16 +31950,16 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31987,7 +31978,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -32001,7 +31992,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
@@ -32016,11 +32007,11 @@
         <v>54</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -32029,7 +32020,7 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32046,16 +32037,16 @@
       <c r="F6" s="15">
         <v>1000</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32070,16 +32061,18 @@
         <v>54</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32095,13 +32088,13 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32121,7 +32114,7 @@
       <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="19"/>
@@ -32131,7 +32124,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32151,7 +32144,7 @@
       <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
@@ -32161,7 +32154,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32177,7 +32170,7 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="19"/>
@@ -32185,7 +32178,7 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32201,7 +32194,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="19"/>
@@ -32209,13 +32202,13 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>99</v>
@@ -32224,22 +32217,24 @@
         <v>54</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>102</v>
@@ -32248,22 +32243,24 @@
         <v>54</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="J14" s="13"/>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>82</v>
@@ -32272,11 +32269,13 @@
         <v>54</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="19"/>
     </row>
